--- a/Experiments/Exp1.xlsx
+++ b/Experiments/Exp1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Время начала</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Шаг дискретизации  Δt (мс)</t>
-  </si>
-  <si>
-    <t>0,5</t>
   </si>
   <si>
     <t>Горизонтальный шаг сетки Δu (mV)</t>
@@ -81661,8 +81658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:B27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81685,7 +81682,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -81720,170 +81717,170 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B27" s="22" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
